--- a/yxf_yixue/utils/cexcel/关联表-地支藏干.xlsx
+++ b/yxf_yixue/utils/cexcel/关联表-地支藏干.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,122 +64,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>辛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>午</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>壬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：地支藏干争议有3:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.地支藏干的阴阳干如何确定？按照传统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.地支藏干的系数如何确定？（折中：0.6,0.2,0.2/1/0.6,0.3,0.1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>癸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>辛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>卯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛</t>
+    <t>1.午有没有藏己干？按照传统，有，系数单算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>午</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>癸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>壬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,13 +619,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -610,16 +642,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>0.1</v>
@@ -630,25 +662,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -656,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -682,19 +714,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -708,25 +740,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -734,22 +766,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -760,22 +792,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2">
         <v>0.1</v>
@@ -786,25 +818,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -812,22 +844,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -838,22 +870,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2">
         <v>0.1</v>
@@ -864,25 +896,45 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
